--- a/zomato.xlsx
+++ b/zomato.xlsx
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,12 +111,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF181717"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -174,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -184,9 +178,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -517,12 +508,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -549,13 +540,13 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>34</v>
       </c>
-      <c r="C2" s="4">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
         <v>2000</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -569,13 +560,13 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>39</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>48</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>4000</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -589,13 +580,13 @@
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>37</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>37</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>4000</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -609,13 +600,13 @@
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>27</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>135</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>5500</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -629,13 +620,13 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>28</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>40</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>7000</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -649,13 +640,13 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>34</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>37</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>2000</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -669,13 +660,13 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>41</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>305</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>7000</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -685,17 +676,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>28</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>40</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>3000</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -705,17 +696,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>32</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>49</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>3000</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -725,17 +716,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>37</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>41</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>4500</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -745,17 +736,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>35</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>22</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>3000</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -765,17 +756,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>44</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>2861</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>15000</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -789,13 +780,13 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>41</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>353</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>20000</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -809,13 +800,13 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>41</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>119</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>8000</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -829,13 +820,13 @@
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>42</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>1731</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>14000</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -849,13 +840,13 @@
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>40</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>1509</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>9000</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -869,13 +860,13 @@
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>41</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>218</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>6000</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -889,13 +880,13 @@
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>35</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>24</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>5500</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -909,13 +900,13 @@
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>39</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>620</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>10000</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -929,13 +920,13 @@
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>34</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>58</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>4000</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -949,13 +940,13 @@
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>37</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>33</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>2000</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -969,13 +960,13 @@
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>43</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>595</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>25000</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -989,13 +980,13 @@
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>31</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>11</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>8000</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1009,13 +1000,13 @@
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>37</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>209</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>6000</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1029,13 +1020,13 @@
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>40</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>419</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>14000</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1049,13 +1040,13 @@
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>40</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>932</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>10000</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1069,13 +1060,13 @@
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>36</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>15</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>10000</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1089,13 +1080,13 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>31</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>46</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>10000</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1109,13 +1100,13 @@
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>33</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>4</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>7000</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1129,13 +1120,13 @@
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>34</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>9</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>8000</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1149,13 +1140,13 @@
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>40</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>344</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>30000</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1169,13 +1160,13 @@
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="4">
-        <v>7</v>
-      </c>
-      <c r="D33" s="4">
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
         <v>3000</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1189,13 +1180,13 @@
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>41</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>268</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>30000</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1209,13 +1200,13 @@
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>41</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>1234</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>8000</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1229,13 +1220,13 @@
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>39</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>283</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>2500</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1249,13 +1240,13 @@
       <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>37</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>21</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>5000</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1269,13 +1260,13 @@
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>128</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>6000</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1289,13 +1280,13 @@
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>39</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>156</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>4500</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -1309,13 +1300,13 @@
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>42</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>556</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>4000</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -1329,13 +1320,13 @@
       <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>31</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>13</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>4000</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -1349,13 +1340,13 @@
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>37</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>29</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>5000</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -1369,13 +1360,13 @@
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>35</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>58</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>9000</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -1389,13 +1380,13 @@
       <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>44</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>1149</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>11000</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -1409,13 +1400,13 @@
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>41</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>662</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>11000</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -1429,13 +1420,13 @@
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>30</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>17</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>10000</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -1449,13 +1440,13 @@
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>37</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>14</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>2000</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -1469,13 +1460,13 @@
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>37</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>399</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>10000</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -1489,13 +1480,13 @@
       <c r="A49" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>32</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>4</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>4000</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -1509,13 +1500,13 @@
       <c r="A50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>28</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>40</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>16000</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -1529,13 +1520,13 @@
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>41</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>55</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>5000</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -1549,13 +1540,13 @@
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>36</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>82</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>3000</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -1569,13 +1560,13 @@
       <c r="A53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>30</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>23</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>4000</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -1589,13 +1580,13 @@
       <c r="A54" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>33</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>4</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>7000</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -1609,13 +1600,13 @@
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>40</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>62</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>1500</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -1629,13 +1620,13 @@
       <c r="A56" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>28</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>40</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>3000</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -1649,13 +1640,13 @@
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2">
         <v>32</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>4</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>1000</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -1669,13 +1660,13 @@
       <c r="A58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2">
         <v>39</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>737</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>14000</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -1689,13 +1680,13 @@
       <c r="A59" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2">
         <v>39</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>1763</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>13000</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -1709,13 +1700,13 @@
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2">
         <v>36</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>51</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
         <v>1500</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -1729,13 +1720,13 @@
       <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>35</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="2">
         <v>15</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
         <v>2500</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -1749,13 +1740,13 @@
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>38</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>478</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>4000</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -1769,13 +1760,13 @@
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2">
         <v>35</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>11</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>5000</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -1789,13 +1780,13 @@
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2">
         <v>34</v>
       </c>
-      <c r="C64" s="4">
-        <v>8</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="C64" s="2">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2">
         <v>3000</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -1809,13 +1800,13 @@
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2">
         <v>35</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="2">
         <v>531</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
         <v>6000</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -1829,13 +1820,13 @@
       <c r="A66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2">
         <v>35</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="2">
         <v>18</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="2">
         <v>2500</v>
       </c>
       <c r="E66" s="3" t="s">
@@ -1849,13 +1840,13 @@
       <c r="A67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2">
         <v>34</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>5</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="2">
         <v>2500</v>
       </c>
       <c r="E67" s="3" t="s">
@@ -1869,13 +1860,13 @@
       <c r="A68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="2">
         <v>37</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="2">
         <v>16</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="2">
         <v>2000</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -1889,13 +1880,13 @@
       <c r="A69" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="2">
         <v>39</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="2">
         <v>105</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="2">
         <v>10000</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -1909,13 +1900,13 @@
       <c r="A70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="2">
         <v>32</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="2">
         <v>4</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="2">
         <v>6000</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -1929,13 +1920,13 @@
       <c r="A71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="2">
         <v>36</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="2">
         <v>17</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="2">
         <v>3000</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -1949,13 +1940,13 @@
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="2">
         <v>37</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="2">
         <v>74</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="2">
         <v>6000</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -1969,13 +1960,13 @@
       <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="2">
         <v>28</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="2">
         <v>40</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="2">
         <v>5000</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -1989,13 +1980,13 @@
       <c r="A74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="2">
         <v>28</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="2">
         <v>40</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="2">
         <v>2000</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -2009,13 +2000,13 @@
       <c r="A75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="2">
         <v>30</v>
       </c>
-      <c r="C75" s="4">
-        <v>7</v>
-      </c>
-      <c r="D75" s="4">
+      <c r="C75" s="2">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2">
         <v>10000</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -2029,13 +2020,13 @@
       <c r="A76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="2">
         <v>28</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="2">
         <v>40</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="2">
         <v>5000</v>
       </c>
       <c r="E76" s="3" t="s">
@@ -2049,13 +2040,13 @@
       <c r="A77" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="2">
         <v>36</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="2">
         <v>106</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="2">
         <v>2500</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -2069,13 +2060,13 @@
       <c r="A78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="2">
         <v>41</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="2">
         <v>41</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="2">
         <v>1500</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -2089,13 +2080,13 @@
       <c r="A79" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="2">
         <v>38</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="2">
         <v>16</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="2">
         <v>2500</v>
       </c>
       <c r="E79" s="3" t="s">
@@ -2109,13 +2100,13 @@
       <c r="A80" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="2">
         <v>40</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="2">
         <v>101</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="2">
         <v>2500</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -2129,13 +2120,13 @@
       <c r="A81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="2">
         <v>28</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="2">
         <v>40</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="2">
         <v>3000</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -2149,13 +2140,13 @@
       <c r="A82" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="2">
         <v>34</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="2">
         <v>32</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="2">
         <v>4000</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -2169,13 +2160,13 @@
       <c r="A83" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="2">
         <v>40</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="2">
         <v>458</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="2">
         <v>4000</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -2189,13 +2180,13 @@
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="2">
         <v>36</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="2">
         <v>12</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="2">
         <v>5500</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -2209,13 +2200,13 @@
       <c r="A85" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="2">
         <v>28</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="2">
         <v>211</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="2">
         <v>3000</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -2229,13 +2220,13 @@
       <c r="A86" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="2">
         <v>33</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="2">
         <v>19</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="2">
         <v>6000</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -2249,13 +2240,13 @@
       <c r="A87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="2">
         <v>43</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="2">
         <v>2871</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="2">
         <v>6000</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -2269,13 +2260,13 @@
       <c r="A88" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="2">
         <v>34</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="2">
         <v>12</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="2">
         <v>3500</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -2289,13 +2280,13 @@
       <c r="A89" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="2">
         <v>33</v>
       </c>
-      <c r="C89" s="4">
-        <v>6</v>
-      </c>
-      <c r="D89" s="4">
+      <c r="C89" s="2">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2">
         <v>3000</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -2309,13 +2300,13 @@
       <c r="A90" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="2">
         <v>30</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="2">
         <v>19</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="2">
         <v>7500</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -2329,13 +2320,13 @@
       <c r="A91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="2">
         <v>32</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="2">
         <v>9</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="2">
         <v>2000</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -2349,13 +2340,13 @@
       <c r="A92" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="2">
         <v>35</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="2">
         <v>21</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="2">
         <v>3500</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -2369,13 +2360,13 @@
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="2">
         <v>32</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="2">
         <v>4</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="2">
         <v>3000</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -2389,13 +2380,13 @@
       <c r="A94" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="2">
         <v>30</v>
       </c>
-      <c r="C94" s="4">
-        <v>10</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="C94" s="2">
+        <v>10</v>
+      </c>
+      <c r="D94" s="2">
         <v>2000</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -2409,13 +2400,13 @@
       <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="2">
         <v>36</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="2">
         <v>25</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="2">
         <v>5000</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -2429,13 +2420,13 @@
       <c r="A96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="2">
         <v>32</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="2">
         <v>4</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="2">
         <v>1500</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -2449,13 +2440,13 @@
       <c r="A97" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="2">
         <v>35</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="2">
         <v>46</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="2">
         <v>5000</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -2469,13 +2460,13 @@
       <c r="A98" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="2">
         <v>25</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="2">
         <v>544</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="2">
         <v>4000</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -2489,13 +2480,13 @@
       <c r="A99" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="2">
         <v>27</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="2">
         <v>97</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="2">
         <v>4000</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -2509,13 +2500,13 @@
       <c r="A100" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="2">
         <v>37</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="2">
         <v>42</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="2">
         <v>3000</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -2529,13 +2520,13 @@
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="2">
         <v>28</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="2">
         <v>40</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="2">
         <v>6000</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -2549,13 +2540,13 @@
       <c r="A102" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="2">
         <v>33</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="2">
         <v>5</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="2">
         <v>8000</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -2569,13 +2560,13 @@
       <c r="A103" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="2">
         <v>36</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="2">
         <v>22</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="2">
         <v>3500</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -2589,13 +2580,13 @@
       <c r="A104" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="2">
         <v>28</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="2">
         <v>40</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="2">
         <v>9000</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -2609,13 +2600,13 @@
       <c r="A105" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="2">
         <v>36</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="2">
         <v>93</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="2">
         <v>3000</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -2629,13 +2620,13 @@
       <c r="A106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="2">
         <v>34</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="2">
         <v>58</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="2">
         <v>9000</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -2650,10 +2641,10 @@
         <v>6</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="4">
+      <c r="C107" s="2">
         <v>40</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="2">
         <v>1000</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -2667,13 +2658,13 @@
       <c r="A108" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="2">
         <v>40</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="2">
         <v>68</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="2">
         <v>2500</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -2687,13 +2678,13 @@
       <c r="A109" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="2">
         <v>35</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="2">
         <v>13</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="2">
         <v>3000</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -2707,13 +2698,13 @@
       <c r="A110" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="2">
         <v>40</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="2">
         <v>65</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="2">
         <v>3500</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -2727,13 +2718,13 @@
       <c r="A111" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="2">
         <v>35</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="2">
         <v>888</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="2">
         <v>6500</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -2747,13 +2738,13 @@
       <c r="A112" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="2">
         <v>30</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="2">
         <v>66</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="2">
         <v>7000</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -2767,13 +2758,13 @@
       <c r="A113" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="2">
         <v>33</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="2">
         <v>5</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="2">
         <v>6000</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -2787,13 +2778,13 @@
       <c r="A114" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="2">
         <v>35</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="2">
         <v>11</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="2">
         <v>2000</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -2807,13 +2798,13 @@
       <c r="A115" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="2">
         <v>32</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="2">
         <v>127</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="2">
         <v>4000</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -2827,13 +2818,13 @@
       <c r="A116" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="2">
         <v>34</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="2">
         <v>212</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="2">
         <v>8000</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -2847,13 +2838,13 @@
       <c r="A117" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="2">
         <v>36</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="2">
         <v>15</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="2">
         <v>2000</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -2867,13 +2858,13 @@
       <c r="A118" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="2">
         <v>33</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="2">
         <v>11</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="2">
         <v>3000</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -2887,13 +2878,13 @@
       <c r="A119" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="2">
         <v>31</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="2">
         <v>249</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="2">
         <v>3000</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -2907,13 +2898,13 @@
       <c r="A120" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="2">
         <v>27</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="2">
         <v>35</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="2">
         <v>1500</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -2927,13 +2918,13 @@
       <c r="A121" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="2">
         <v>38</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="2">
         <v>120</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="2">
         <v>6000</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -2947,13 +2938,13 @@
       <c r="A122" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="2">
         <v>39</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="2">
         <v>131</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="2">
         <v>2500</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -2967,13 +2958,13 @@
       <c r="A123" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="2">
         <v>28</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="2">
         <v>40</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="2">
         <v>2500</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -2987,13 +2978,13 @@
       <c r="A124" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="2">
         <v>31</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="2">
         <v>16</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="2">
         <v>11000</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -3007,13 +2998,13 @@
       <c r="A125" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="2">
         <v>32</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="2">
         <v>574</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="2">
         <v>6000</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -3027,13 +3018,13 @@
       <c r="A126" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="2">
         <v>37</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="2">
         <v>134</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="2">
         <v>2000</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -3047,10 +3038,10 @@
       <c r="A127" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="2">
         <v>35</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="2">
         <v>54</v>
       </c>
       <c r="D127" s="2"/>
@@ -3065,13 +3056,13 @@
       <c r="A128" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="2">
         <v>38</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="2">
         <v>164</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="2">
         <v>6500</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -3085,13 +3076,13 @@
       <c r="A129" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="2">
         <v>31</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="2">
         <v>61</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="2">
         <v>3000</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -3105,13 +3096,13 @@
       <c r="A130" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="2">
         <v>32</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="2">
         <v>12</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="2">
         <v>5000</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -3125,13 +3116,13 @@
       <c r="A131" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="2">
         <v>33</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="2">
         <v>4</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="2">
         <v>3000</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -3145,13 +3136,13 @@
       <c r="A132" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="2">
         <v>34</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="2">
         <v>5</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="2">
         <v>4000</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -3165,13 +3156,13 @@
       <c r="A133" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="2">
         <v>46</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="2">
         <v>1502</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="2">
         <v>14000</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -3185,13 +3176,13 @@
       <c r="A134" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="2">
         <v>38</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="2">
         <v>209</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="2">
         <v>4500</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -3205,13 +3196,13 @@
       <c r="A135" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="2">
         <v>28</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="2">
         <v>40</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="2">
         <v>1500</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -3225,13 +3216,13 @@
       <c r="A136" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="2">
         <v>39</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="2">
         <v>49</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="2">
         <v>2000</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -3245,13 +3236,13 @@
       <c r="A137" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="2">
         <v>28</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="2">
         <v>40</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="2">
         <v>4000</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -3265,13 +3256,13 @@
       <c r="A138" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="2">
         <v>29</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="2">
         <v>42</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="2">
         <v>3000</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -3285,13 +3276,13 @@
       <c r="A139" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="2">
         <v>38</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="2">
         <v>405</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="2">
         <v>3500</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -3305,13 +3296,13 @@
       <c r="A140" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="2">
         <v>36</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="2">
         <v>33</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="2">
         <v>5000</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -3325,13 +3316,13 @@
       <c r="A141" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="2">
         <v>31</v>
       </c>
-      <c r="C141" s="4">
-        <v>10</v>
-      </c>
-      <c r="D141" s="4">
+      <c r="C141" s="2">
+        <v>10</v>
+      </c>
+      <c r="D141" s="2">
         <v>3000</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -3345,13 +3336,13 @@
       <c r="A142" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="2">
         <v>33</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="2">
         <v>5</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="2">
         <v>3000</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -3365,13 +3356,13 @@
       <c r="A143" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="2">
         <v>37</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="2">
         <v>88</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="2">
         <v>3000</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -3385,13 +3376,13 @@
       <c r="A144" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="2">
         <v>33</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="2">
         <v>55</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="2">
         <v>1500</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -3405,13 +3396,13 @@
       <c r="A145" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="2">
         <v>33</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="2">
         <v>4</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="2">
         <v>4000</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -3425,13 +3416,13 @@
       <c r="A146" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="2">
         <v>39</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="2">
         <v>178</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="2">
         <v>4500</v>
       </c>
       <c r="E146" s="3" t="s">
@@ -3445,13 +3436,13 @@
       <c r="A147" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="2">
         <v>37</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="2">
         <v>27</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="2">
         <v>2500</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -3465,13 +3456,13 @@
       <c r="A148" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="2">
         <v>28</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="2">
         <v>40</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="2">
         <v>2000</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -3485,13 +3476,13 @@
       <c r="A149" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="2">
         <v>33</v>
       </c>
-      <c r="C149" s="4">
-        <v>10</v>
-      </c>
-      <c r="D149" s="4">
+      <c r="C149" s="2">
+        <v>10</v>
+      </c>
+      <c r="D149" s="2">
         <v>3000</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -3505,13 +3496,13 @@
       <c r="A150" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="2">
         <v>37</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="2">
         <v>59</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="2">
         <v>3000</v>
       </c>
       <c r="E150" s="3" t="s">
